--- a/data/matriz_qfd.xlsx
+++ b/data/matriz_qfd.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>etapa 2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>defr</t>
+          <t>etapa 3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cfytguh</t>
+          <t>dcfvg</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -463,45 +463,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sdef</t>
+          <t>sabor</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>precio</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dtry</t>
+          <t>sdfg</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/data/matriz_qfd.xlsx
+++ b/data/matriz_qfd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>etapa 2</t>
+          <t>sefrgd</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>etapa 3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dcfvg</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Resultado Interno</t>
         </is>
@@ -463,57 +453,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sabor</t>
+          <t>sedrf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>precio</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sdfg</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/matriz_qfd.xlsx
+++ b/data/matriz_qfd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Aspecto</t>
+          <t>Ques</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sefrgd</t>
+          <t>aesrd</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -450,19 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sedrf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/matriz_qfd.xlsx
+++ b/data/matriz_qfd.xlsx
@@ -69,14 +69,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,106 +459,389 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>QUÉS</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>PRIORIDAD</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Importancia</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              2
+              RECEPCIÓN DEL MAÍZ
             </t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-              3
+              ALMACENAJE DEL MAÍZ
             </t>
         </is>
       </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              ELABORACIÓN DEL NIXTAMAL
+            </t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              LAVADO Y REPOSO DEL NIXTAMAL
+            </t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              MOLIENDA (OBTENER MASA)
+            </t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              DESHIDRATADO
+            </t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              ENVASADO Y ALMACENAJE
+            </t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>20</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>10</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Sabor</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Resultados internos</t>
-        </is>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Olor</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Humedad</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Presentación y calidad de embasado</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Quejas acerca del sabor y olor</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>IMPORTANCIA</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="C11" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>IMPORTANCIA RELATIVA</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>41.18%</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>58.82%</t>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>2.80</t>
         </is>
       </c>
     </row>
